--- a/Data/2018-04-08-QuantSeq-Samples.xlsx
+++ b/Data/2018-04-08-QuantSeq-Samples.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28331"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="12400" yWindow="0" windowWidth="13200" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="QuantSeq-Samples" sheetId="1" r:id="rId1"/>
@@ -97,9 +97,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="63">
   <si>
-    <t>Selected for Sequencing</t>
-  </si>
-  <si>
     <t>RNA Sample #</t>
   </si>
   <si>
@@ -297,6 +294,9 @@
       <t xml:space="preserve"> or 67-A</t>
     </r>
   </si>
+  <si>
+    <t>Order for Sequencing</t>
+  </si>
 </sst>
 </file>
 
@@ -306,7 +306,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -383,6 +383,22 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -452,11 +468,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -644,10 +664,14 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="8">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="3"/>
     <cellStyle name="Comma 3" xfId="2"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -982,8 +1006,8 @@
   </sheetPr>
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="G5" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1007,46 +1031,46 @@
   <sheetData>
     <row r="1" spans="1:16" s="6" customFormat="1" ht="42" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="14" customFormat="1">
@@ -1057,22 +1081,22 @@
         <v>2</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="9">
         <v>6</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>16</v>
       </c>
       <c r="G2" s="9">
         <v>2</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" s="10">
         <v>42833</v>
@@ -1099,22 +1123,22 @@
         <v>3</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="9">
         <v>6</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" s="9">
         <v>2</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3" s="10">
         <v>42833</v>
@@ -1141,22 +1165,22 @@
         <v>7</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="9">
         <v>6</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="9">
         <v>2</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" s="10">
         <v>42833</v>
@@ -1183,22 +1207,22 @@
         <v>9</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="9">
         <v>6</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" s="9">
         <v>2</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" s="10">
         <v>42833</v>
@@ -1225,22 +1249,22 @@
         <v>5</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="9">
         <v>6</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="9">
         <v>0</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I6" s="10">
         <v>42833</v>
@@ -1267,22 +1291,22 @@
         <v>10</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="17">
         <v>6</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" s="17">
         <v>2</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I7" s="18">
         <v>42833</v>
@@ -1309,22 +1333,22 @@
         <v>11</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="17">
         <v>6</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" s="17">
         <v>2</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" s="18">
         <v>42833</v>
@@ -1351,22 +1375,22 @@
         <v>13</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="17">
         <v>6</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" s="17">
         <v>2</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I9" s="18">
         <v>42833</v>
@@ -1393,22 +1417,22 @@
         <v>14</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="17">
         <v>6</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" s="17">
         <v>3</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I10" s="18">
         <v>42833</v>
@@ -1435,22 +1459,22 @@
         <v>15</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="17">
         <v>6</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" s="17">
         <v>3</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I11" s="18">
         <v>42833</v>
@@ -1477,22 +1501,22 @@
         <v>18</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="17">
         <v>6</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G12" s="17">
         <v>2</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I12" s="18">
         <v>42833</v>
@@ -1519,22 +1543,22 @@
         <v>17</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="17">
         <v>6</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G13" s="17">
         <v>2</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I13" s="18">
         <v>42833</v>
@@ -1558,37 +1582,37 @@
         <v>1</v>
       </c>
       <c r="B14" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>33</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>34</v>
       </c>
       <c r="D14" s="27">
         <v>10</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G14" s="29">
         <v>3</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I14" s="30">
         <v>42833</v>
       </c>
       <c r="J14" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="K14" s="31" t="s">
-        <v>36</v>
-      </c>
       <c r="L14" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M14" s="28"/>
       <c r="N14" s="33"/>
@@ -1602,22 +1626,22 @@
         <v>19</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="37">
         <v>10</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G15" s="39">
         <v>2</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I15" s="40">
         <v>42833</v>
@@ -1644,22 +1668,22 @@
         <v>21</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" s="37">
         <v>10</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G16" s="39">
         <v>2</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I16" s="40">
         <v>42833</v>
@@ -1686,22 +1710,22 @@
         <v>23</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="37">
         <v>10</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G17" s="39">
         <v>2</v>
       </c>
       <c r="H17" s="38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I17" s="40">
         <v>42833</v>
@@ -1728,22 +1752,22 @@
         <v>24</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D18" s="37">
         <v>10</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G18" s="39">
         <v>2</v>
       </c>
       <c r="H18" s="38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I18" s="40">
         <v>42833</v>
@@ -1767,37 +1791,37 @@
         <v>2</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" s="37">
         <v>10</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G19" s="39">
         <v>2</v>
       </c>
       <c r="H19" s="38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I19" s="40">
         <v>42833</v>
       </c>
       <c r="J19" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="K19" s="41" t="s">
-        <v>36</v>
-      </c>
       <c r="L19" s="42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M19" s="38"/>
       <c r="N19" s="43"/>
@@ -1808,37 +1832,37 @@
         <v>3</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D20" s="37">
         <v>10</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G20" s="39">
         <v>3</v>
       </c>
       <c r="H20" s="38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I20" s="40">
         <v>42833</v>
       </c>
       <c r="J20" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="K20" s="41" t="s">
-        <v>36</v>
-      </c>
       <c r="L20" s="42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M20" s="38"/>
       <c r="N20" s="43"/>
@@ -1852,22 +1876,22 @@
         <v>29</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D21" s="48">
         <v>10</v>
       </c>
       <c r="E21" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F21" s="49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G21" s="50">
         <v>2</v>
       </c>
       <c r="H21" s="49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I21" s="51">
         <v>42833</v>
@@ -1892,22 +1916,22 @@
         <v>32</v>
       </c>
       <c r="C22" s="47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D22" s="48">
         <v>10</v>
       </c>
       <c r="E22" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F22" s="49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G22" s="50">
         <v>2</v>
       </c>
       <c r="H22" s="49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I22" s="51">
         <v>42833</v>
@@ -1916,10 +1940,10 @@
         <v>43186</v>
       </c>
       <c r="K22" s="52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L22" s="53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M22" s="49"/>
     </row>
@@ -1931,22 +1955,22 @@
         <v>33</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" s="48">
         <v>10</v>
       </c>
       <c r="E23" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F23" s="49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G23" s="50">
         <v>2</v>
       </c>
       <c r="H23" s="49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I23" s="51">
         <v>42833</v>
@@ -1968,34 +1992,34 @@
         <v>2</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D24" s="48">
         <v>10</v>
       </c>
       <c r="E24" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F24" s="49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G24" s="50">
         <v>3</v>
       </c>
       <c r="H24" s="49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I24" s="51">
         <v>42833</v>
       </c>
       <c r="J24" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" s="55" t="s">
         <v>35</v>
-      </c>
-      <c r="K24" s="55" t="s">
-        <v>36</v>
       </c>
       <c r="L24" s="53"/>
       <c r="M24" s="49"/>
@@ -2008,22 +2032,22 @@
         <v>28</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D25" s="48">
         <v>10</v>
       </c>
       <c r="E25" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F25" s="49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G25" s="50">
         <v>3</v>
       </c>
       <c r="H25" s="49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I25" s="51">
         <v>42833</v>
@@ -2050,22 +2074,22 @@
         <v>34</v>
       </c>
       <c r="C26" s="58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D26" s="59">
         <v>6</v>
       </c>
       <c r="E26" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="60" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="H26" s="60" t="s">
-        <v>52</v>
       </c>
       <c r="I26" s="62">
         <v>42905</v>
@@ -2081,7 +2105,7 @@
         <v>1162.8</v>
       </c>
       <c r="M26" s="60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="65" customFormat="1">
@@ -2092,22 +2116,22 @@
         <v>35</v>
       </c>
       <c r="C27" s="58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D27" s="59">
         <v>6</v>
       </c>
       <c r="E27" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="60" t="s">
         <v>51</v>
-      </c>
-      <c r="F27" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="G27" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="60" t="s">
-        <v>52</v>
       </c>
       <c r="I27" s="62">
         <v>42878</v>
@@ -2123,7 +2147,7 @@
         <v>1349</v>
       </c>
       <c r="M27" s="60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="65" customFormat="1">
@@ -2134,22 +2158,22 @@
         <v>37</v>
       </c>
       <c r="C28" s="58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="59">
         <v>6</v>
       </c>
       <c r="E28" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" s="60" t="s">
         <v>51</v>
-      </c>
-      <c r="F28" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="H28" s="60" t="s">
-        <v>52</v>
       </c>
       <c r="I28" s="62">
         <v>42901</v>
@@ -2165,7 +2189,7 @@
         <v>2318</v>
       </c>
       <c r="M28" s="60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="71" customFormat="1">
@@ -2176,22 +2200,22 @@
         <v>39</v>
       </c>
       <c r="C29" s="67" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D29" s="59">
         <v>6</v>
       </c>
       <c r="E29" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="67" t="s">
         <v>51</v>
-      </c>
-      <c r="F29" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="H29" s="67" t="s">
-        <v>52</v>
       </c>
       <c r="I29" s="68">
         <v>42892</v>
@@ -2200,10 +2224,10 @@
         <v>43189</v>
       </c>
       <c r="K29" s="69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L29" s="70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M29" s="67"/>
     </row>
@@ -2215,22 +2239,22 @@
         <v>41</v>
       </c>
       <c r="C30" s="73" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D30" s="74">
         <v>10</v>
       </c>
       <c r="E30" s="73" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F30" s="75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G30" s="76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H30" s="75" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I30" s="77">
         <v>42876</v>
@@ -2246,7 +2270,7 @@
         <v>1371.8</v>
       </c>
       <c r="M30" s="75" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="80" customFormat="1">
@@ -2257,22 +2281,22 @@
         <v>44</v>
       </c>
       <c r="C31" s="73" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D31" s="74">
         <v>10</v>
       </c>
       <c r="E31" s="73" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F31" s="75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G31" s="76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H31" s="75" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I31" s="77">
         <v>42886</v>
@@ -2281,10 +2305,10 @@
         <v>43189</v>
       </c>
       <c r="K31" s="78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L31" s="79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M31" s="75"/>
     </row>
@@ -2296,22 +2320,22 @@
         <v>45</v>
       </c>
       <c r="C32" s="73" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D32" s="74">
         <v>10</v>
       </c>
       <c r="E32" s="73" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F32" s="75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G32" s="76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H32" s="75" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I32" s="77">
         <v>42910</v>
@@ -2320,10 +2344,10 @@
         <v>43189</v>
       </c>
       <c r="K32" s="78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L32" s="79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M32" s="75"/>
     </row>
@@ -2335,22 +2359,22 @@
         <v>47</v>
       </c>
       <c r="C33" s="73" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D33" s="74">
         <v>10</v>
       </c>
       <c r="E33" s="73" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F33" s="75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G33" s="76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H33" s="75" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I33" s="77">
         <v>42882</v>
@@ -2366,7 +2390,7 @@
         <v>3686</v>
       </c>
       <c r="M33" s="75" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2018-04-08-QuantSeq-Samples.xlsx
+++ b/Data/2018-04-08-QuantSeq-Samples.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28331"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12400" yWindow="0" windowWidth="13200" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="860" yWindow="0" windowWidth="24740" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="QuantSeq-Samples" sheetId="1" r:id="rId1"/>
+    <sheet name="The A list" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -95,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="106">
   <si>
     <t>RNA Sample #</t>
   </si>
@@ -296,6 +297,135 @@
   </si>
   <si>
     <t>Order for Sequencing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA Sample   # </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Original Sample Label </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Temperature </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pH </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gonad Sex </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gonad Stage </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tissue Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SN-6-17 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Low </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HPF </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fixed Gonad</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SN-6-18 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> H </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SN-6-22 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SN-6-25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ambient </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SN-6-26 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SN-6-28 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HPM </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SN-6-29 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SN-6-30 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SN-10-16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SN-10-18 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SN-10-21 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SN-10-23 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SN-10-24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SN-10-29 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SN-10-32 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SN-10-33 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 77-A </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SN-6-Ambient </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> n/a </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10-A </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 69-A </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 48-A </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6-A </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SN-10-Low </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32-A </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 79-A </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26-A   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Frozen larvae</t>
+  </si>
+  <si>
+    <t>n/a, (sam extr.)</t>
   </si>
 </sst>
 </file>
@@ -468,7 +598,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -477,8 +607,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -663,15 +801,27 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="16">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="3"/>
     <cellStyle name="Comma 3" xfId="2"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1006,8 +1156,8 @@
   </sheetPr>
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1108,7 +1258,7 @@
         <v>84</v>
       </c>
       <c r="L2" s="12">
-        <f>K2*46</f>
+        <f t="shared" ref="L2:L13" si="0">K2*46</f>
         <v>3864</v>
       </c>
       <c r="M2" s="8"/>
@@ -1150,7 +1300,7 @@
         <v>43.9</v>
       </c>
       <c r="L3" s="12">
-        <f>K3*46</f>
+        <f t="shared" si="0"/>
         <v>2019.3999999999999</v>
       </c>
       <c r="M3" s="8"/>
@@ -1192,7 +1342,7 @@
         <v>56</v>
       </c>
       <c r="L4" s="12">
-        <f>K4*46</f>
+        <f t="shared" si="0"/>
         <v>2576</v>
       </c>
       <c r="M4" s="8"/>
@@ -1234,7 +1384,7 @@
         <v>24.2</v>
       </c>
       <c r="L5" s="12">
-        <f>K5*46</f>
+        <f t="shared" si="0"/>
         <v>1113.2</v>
       </c>
       <c r="M5" s="8"/>
@@ -1276,7 +1426,7 @@
         <v>33.200000000000003</v>
       </c>
       <c r="L6" s="12">
-        <f>K6*46</f>
+        <f t="shared" si="0"/>
         <v>1527.2</v>
       </c>
       <c r="M6" s="8"/>
@@ -1318,7 +1468,7 @@
         <v>76</v>
       </c>
       <c r="L7" s="20">
-        <f>K7*46</f>
+        <f t="shared" si="0"/>
         <v>3496</v>
       </c>
       <c r="M7" s="16"/>
@@ -1360,7 +1510,7 @@
         <v>51</v>
       </c>
       <c r="L8" s="20">
-        <f>K8*46</f>
+        <f t="shared" si="0"/>
         <v>2346</v>
       </c>
       <c r="M8" s="16"/>
@@ -1402,7 +1552,7 @@
         <v>34.6</v>
       </c>
       <c r="L9" s="20">
-        <f>K9*46</f>
+        <f t="shared" si="0"/>
         <v>1591.6000000000001</v>
       </c>
       <c r="M9" s="16"/>
@@ -1444,7 +1594,7 @@
         <v>49.6</v>
       </c>
       <c r="L10" s="20">
-        <f>K10*46</f>
+        <f t="shared" si="0"/>
         <v>2281.6</v>
       </c>
       <c r="M10" s="16"/>
@@ -1486,7 +1636,7 @@
         <v>57</v>
       </c>
       <c r="L11" s="20">
-        <f>K11*46</f>
+        <f t="shared" si="0"/>
         <v>2622</v>
       </c>
       <c r="M11" s="16"/>
@@ -1528,7 +1678,7 @@
         <v>18.3</v>
       </c>
       <c r="L12" s="20">
-        <f>K12*46</f>
+        <f t="shared" si="0"/>
         <v>841.80000000000007</v>
       </c>
       <c r="M12" s="16"/>
@@ -1570,7 +1720,7 @@
         <v>19.600000000000001</v>
       </c>
       <c r="L13" s="20">
-        <f>K13*46</f>
+        <f t="shared" si="0"/>
         <v>901.6</v>
       </c>
       <c r="M13" s="16"/>
@@ -2409,4 +2559,605 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="86" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="86" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="86">
+        <v>2</v>
+      </c>
+      <c r="B2" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="86">
+        <v>6</v>
+      </c>
+      <c r="D2" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="86" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="86">
+        <v>2</v>
+      </c>
+      <c r="G2" s="86" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="86">
+        <v>3</v>
+      </c>
+      <c r="B3" s="86" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="86">
+        <v>6</v>
+      </c>
+      <c r="D3" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="86" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="86">
+        <v>2</v>
+      </c>
+      <c r="G3" s="86" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="86">
+        <v>7</v>
+      </c>
+      <c r="B4" s="86" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="86">
+        <v>6</v>
+      </c>
+      <c r="D4" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="86" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="86">
+        <v>2</v>
+      </c>
+      <c r="G4" s="86" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="86">
+        <v>10</v>
+      </c>
+      <c r="B5" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="86">
+        <v>6</v>
+      </c>
+      <c r="D5" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="86" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="86">
+        <v>2</v>
+      </c>
+      <c r="G5" s="86" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="86">
+        <v>11</v>
+      </c>
+      <c r="B6" s="86" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="86">
+        <v>6</v>
+      </c>
+      <c r="D6" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="86">
+        <v>2</v>
+      </c>
+      <c r="G6" s="86" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="86">
+        <v>13</v>
+      </c>
+      <c r="B7" s="86" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="86">
+        <v>6</v>
+      </c>
+      <c r="D7" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="86" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="86">
+        <v>2</v>
+      </c>
+      <c r="G7" s="86" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="86">
+        <v>14</v>
+      </c>
+      <c r="B8" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="86">
+        <v>6</v>
+      </c>
+      <c r="D8" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="86" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="86">
+        <v>3</v>
+      </c>
+      <c r="G8" s="86" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="86">
+        <v>15</v>
+      </c>
+      <c r="B9" s="86" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="86">
+        <v>6</v>
+      </c>
+      <c r="D9" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="86">
+        <v>3</v>
+      </c>
+      <c r="G9" s="86" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="87" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="86">
+        <v>10</v>
+      </c>
+      <c r="D10" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="86">
+        <v>3</v>
+      </c>
+      <c r="G10" s="86" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="86">
+        <v>19</v>
+      </c>
+      <c r="B11" s="86" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="86">
+        <v>10</v>
+      </c>
+      <c r="D11" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="86" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="86">
+        <v>2</v>
+      </c>
+      <c r="G11" s="86" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="86">
+        <v>21</v>
+      </c>
+      <c r="B12" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="86">
+        <v>10</v>
+      </c>
+      <c r="D12" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="86">
+        <v>2</v>
+      </c>
+      <c r="G12" s="86" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="86">
+        <v>23</v>
+      </c>
+      <c r="B13" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="86">
+        <v>10</v>
+      </c>
+      <c r="D13" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="86" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="86">
+        <v>2</v>
+      </c>
+      <c r="G13" s="86" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="86">
+        <v>24</v>
+      </c>
+      <c r="B14" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="86">
+        <v>10</v>
+      </c>
+      <c r="D14" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="86">
+        <v>2</v>
+      </c>
+      <c r="G14" s="86" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="86">
+        <v>29</v>
+      </c>
+      <c r="B15" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="86">
+        <v>10</v>
+      </c>
+      <c r="D15" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="86">
+        <v>2</v>
+      </c>
+      <c r="G15" s="86" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="86">
+        <v>32</v>
+      </c>
+      <c r="B16" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="86">
+        <v>10</v>
+      </c>
+      <c r="D16" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="86" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="86">
+        <v>2</v>
+      </c>
+      <c r="G16" s="86" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="86">
+        <v>33</v>
+      </c>
+      <c r="B17" s="86" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="86">
+        <v>10</v>
+      </c>
+      <c r="D17" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="86" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="86">
+        <v>2</v>
+      </c>
+      <c r="G17" s="86" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="86">
+        <v>34</v>
+      </c>
+      <c r="B18" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="86">
+        <v>6</v>
+      </c>
+      <c r="D18" s="86" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="86" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="86">
+        <v>35</v>
+      </c>
+      <c r="B19" s="86" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="86">
+        <v>6</v>
+      </c>
+      <c r="D19" s="86" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="86" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="86">
+        <v>37</v>
+      </c>
+      <c r="B20" s="86" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="86">
+        <v>6</v>
+      </c>
+      <c r="D20" s="86" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="86" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="86">
+        <v>39</v>
+      </c>
+      <c r="B21" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="86">
+        <v>6</v>
+      </c>
+      <c r="D21" s="86" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="86" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="86">
+        <v>41</v>
+      </c>
+      <c r="B22" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="86">
+        <v>10</v>
+      </c>
+      <c r="D22" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="86" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="86">
+        <v>44</v>
+      </c>
+      <c r="B23" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="86">
+        <v>10</v>
+      </c>
+      <c r="D23" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="86" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="86">
+        <v>45</v>
+      </c>
+      <c r="B24" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="86">
+        <v>10</v>
+      </c>
+      <c r="D24" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" s="86" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="86">
+        <v>47</v>
+      </c>
+      <c r="B25" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="86">
+        <v>10</v>
+      </c>
+      <c r="D25" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" s="86" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>